--- a/Trabajo_Grupal/BD_Pruebas_de_calidad_de_Software.xlsx
+++ b/Trabajo_Grupal/BD_Pruebas_de_calidad_de_Software.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeonixKPG\Documents\estadistica\Trabajo_Grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9F02C-2708-4498-AB82-6D9474C05A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0895A2-D115-4AC7-AF56-63385898F105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0909D643-5EEB-4CC5-947A-B6136AD9A76E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="132">
   <si>
     <t>procesador</t>
   </si>
@@ -66,9 +66,6 @@
     <t>8GB</t>
   </si>
   <si>
-    <t>48.98</t>
-  </si>
-  <si>
     <t>escritorio</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Ryzen Theradripper Pro 7995Wx</t>
   </si>
   <si>
-    <t>3.13</t>
-  </si>
-  <si>
     <t>Storm Peak(2023)</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Ryzen 7 5700U</t>
   </si>
   <si>
-    <t>9.97</t>
-  </si>
-  <si>
     <t>Portatiles</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>Ryzen 7 7800 X3D</t>
   </si>
   <si>
-    <t>36.26</t>
-  </si>
-  <si>
     <t>Raphael(Zen4)</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>Ryzen 3 3250U</t>
   </si>
   <si>
-    <t>2.40</t>
-  </si>
-  <si>
     <t>Picassp(2019-2022)</t>
   </si>
   <si>
@@ -165,18 +150,12 @@
     <t>Ryzen 5 5600 FT</t>
   </si>
   <si>
-    <t>59.33</t>
-  </si>
-  <si>
     <t>8 de enero 2024</t>
   </si>
   <si>
     <t>Ryzen 5 7500F</t>
   </si>
   <si>
-    <t>66.13</t>
-  </si>
-  <si>
     <t>Raphael(2023-2024)</t>
   </si>
   <si>
@@ -189,27 +168,18 @@
     <t>Ryzen 7 7730U</t>
   </si>
   <si>
-    <t>11.72</t>
-  </si>
-  <si>
     <t>Barcelo-U Refresh(2023)</t>
   </si>
   <si>
     <t>Ryzen 5 5500U</t>
   </si>
   <si>
-    <t>12.21</t>
-  </si>
-  <si>
     <t>25 watt</t>
   </si>
   <si>
     <t>Ryzen 5 5600G</t>
   </si>
   <si>
-    <t>28.04</t>
-  </si>
-  <si>
     <t>Cenzanne (2021-2024)</t>
   </si>
   <si>
@@ -217,9 +187,6 @@
   </si>
   <si>
     <t>core i3 12100F</t>
-  </si>
-  <si>
-    <t>8.88</t>
   </si>
   <si>
     <t>Alder Lake</t>
@@ -920,7 +887,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,14 +942,14 @@
       <c r="C2" s="2">
         <v>627</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>48.98</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>6</v>
@@ -991,18 +958,18 @@
         <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1010,14 +977,14 @@
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
+      <c r="D3" s="3">
+        <v>3.13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
         <v>96</v>
@@ -1026,18 +993,18 @@
         <v>192</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1045,14 +1012,14 @@
       <c r="C4" s="2">
         <v>771</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
+      <c r="D4" s="2">
+        <v>9.9700000000000006</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2">
         <v>8</v>
@@ -1061,18 +1028,18 @@
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -1080,14 +1047,14 @@
       <c r="C5" s="3">
         <v>246</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
+      <c r="D5" s="3">
+        <v>36.26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3">
         <v>8</v>
@@ -1096,18 +1063,18 @@
         <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -1119,10 +1086,10 @@
         <v>5.78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -1131,18 +1098,18 @@
         <v>8</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1150,14 +1117,14 @@
       <c r="C7" s="3">
         <v>1770</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>41</v>
+      <c r="D7" s="3">
+        <v>2.4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -1166,18 +1133,18 @@
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -1185,14 +1152,14 @@
       <c r="C8" s="2">
         <v>590</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
+      <c r="D8" s="2">
+        <v>59.33</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
@@ -1201,18 +1168,18 @@
         <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -1220,14 +1187,14 @@
       <c r="C9" s="3">
         <v>378</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>49</v>
+      <c r="D9" s="3">
+        <v>66.13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3">
         <v>6</v>
@@ -1236,18 +1203,18 @@
         <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -1255,14 +1222,14 @@
       <c r="C10" s="2">
         <v>661</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
+      <c r="D10" s="2">
+        <v>11.72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
         <v>8</v>
@@ -1271,18 +1238,18 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1290,14 +1257,14 @@
       <c r="C11" s="3">
         <v>919</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>57</v>
+      <c r="D11" s="3">
+        <v>12.21</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3">
         <v>6</v>
@@ -1306,18 +1273,18 @@
         <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -1325,14 +1292,14 @@
       <c r="C12" s="2">
         <v>611</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>60</v>
+      <c r="D12" s="2">
+        <v>28.04</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2">
         <v>6</v>
@@ -1341,18 +1308,18 @@
         <v>12</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1360,14 +1327,14 @@
       <c r="C13" s="3">
         <v>859</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
+      <c r="D13" s="3">
+        <v>8.8800000000000008</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3">
         <v>4</v>
@@ -1376,18 +1343,18 @@
         <v>8</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1396,13 +1363,13 @@
         <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
         <v>14</v>
@@ -1411,18 +1378,18 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1434,10 +1401,10 @@
         <v>8.42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3">
         <v>10</v>
@@ -1446,10 +1413,10 @@
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" s="4">
         <v>44615</v>
@@ -1457,7 +1424,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1469,10 +1436,10 @@
         <v>39.270000000000003</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2">
         <v>24</v>
@@ -1481,10 +1448,10 @@
         <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2">
         <v>2024</v>
@@ -1492,7 +1459,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -1501,13 +1468,13 @@
         <v>927</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G17" s="5">
         <v>6</v>
@@ -1516,18 +1483,18 @@
         <v>12</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1539,10 +1506,10 @@
         <v>8.68</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7">
         <v>8</v>
@@ -1551,18 +1518,18 @@
         <v>8</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
@@ -1571,13 +1538,13 @@
         <v>748</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G19" s="5">
         <v>8</v>
@@ -1586,18 +1553,18 @@
         <v>16</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1609,10 +1576,10 @@
         <v>17.02</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G20" s="7">
         <v>8</v>
@@ -1621,18 +1588,18 @@
         <v>16</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
@@ -1644,10 +1611,10 @@
         <v>34.94</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5">
         <v>12</v>
@@ -1656,18 +1623,18 @@
         <v>20</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
@@ -1676,13 +1643,13 @@
         <v>219</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7">
         <v>16</v>
@@ -1691,18 +1658,18 @@
         <v>24</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>12</v>
@@ -1711,13 +1678,13 @@
         <v>178</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G23" s="5">
         <v>20</v>
@@ -1726,18 +1693,18 @@
         <v>28</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>12</v>
@@ -1749,10 +1716,10 @@
         <v>12.27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G24" s="7">
         <v>8</v>
@@ -1761,18 +1728,18 @@
         <v>8</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
@@ -1781,13 +1748,13 @@
         <v>445</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G25" s="5">
         <v>8</v>
@@ -1796,18 +1763,18 @@
         <v>16</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
@@ -1816,13 +1783,13 @@
         <v>580</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7">
         <v>8</v>
@@ -1831,10 +1798,10 @@
         <v>16</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K26" s="9">
         <v>44562</v>
@@ -1842,7 +1809,7 @@
     </row>
     <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -1851,13 +1818,13 @@
         <v>374</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G27" s="5">
         <v>6</v>
@@ -1866,18 +1833,18 @@
         <v>12</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -1886,13 +1853,13 @@
         <v>238</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G28" s="7">
         <v>8</v>
@@ -1901,18 +1868,18 @@
         <v>16</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>12</v>
@@ -1924,10 +1891,10 @@
         <v>52.33</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G29" s="5">
         <v>8</v>
@@ -1936,18 +1903,18 @@
         <v>16</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>12</v>
@@ -1959,10 +1926,10 @@
         <v>13.07</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G30" s="10">
         <v>24</v>
@@ -1971,10 +1938,10 @@
         <v>32</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K30" s="11">
         <v>44930</v>
@@ -1982,7 +1949,7 @@
     </row>
     <row r="31" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -1994,10 +1961,10 @@
         <v>13.71</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G31" s="12">
         <v>24</v>
@@ -2006,10 +1973,10 @@
         <v>32</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K31" s="13">
         <v>43838</v>
@@ -2017,7 +1984,7 @@
     </row>
     <row r="32" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>12</v>
@@ -2029,10 +1996,10 @@
         <v>12.34</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G32" s="10">
         <v>24</v>
@@ -2041,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K32" s="11">
         <v>44930</v>
@@ -2052,7 +2019,7 @@
     </row>
     <row r="33" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>12</v>
@@ -2064,10 +2031,10 @@
         <v>12.52</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G33" s="12">
         <v>24</v>
@@ -2076,10 +2043,10 @@
         <v>32</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K33" s="13">
         <v>44930</v>
@@ -2087,7 +2054,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -2099,10 +2066,10 @@
         <v>10.39</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G34" s="10">
         <v>20</v>
@@ -2111,10 +2078,10 @@
         <v>28</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K34" s="11">
         <v>44930</v>
@@ -2122,7 +2089,7 @@
     </row>
     <row r="35" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
@@ -2134,10 +2101,10 @@
         <v>12.21</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G35" s="12">
         <v>20</v>
@@ -2146,10 +2113,10 @@
         <v>28</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K35" s="13">
         <v>45299</v>
@@ -2157,7 +2124,7 @@
     </row>
     <row r="36" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
@@ -2169,10 +2136,10 @@
         <v>12.5</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G36" s="10">
         <v>16</v>
@@ -2181,10 +2148,10 @@
         <v>24</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K36" s="11">
         <v>45299</v>
@@ -2192,7 +2159,7 @@
     </row>
     <row r="37" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
@@ -2204,10 +2171,10 @@
         <v>18.14</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G37" s="12">
         <v>16</v>
@@ -2216,10 +2183,10 @@
         <v>24</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K37" s="13">
         <v>44691</v>
@@ -2227,7 +2194,7 @@
     </row>
     <row r="38" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
@@ -2239,10 +2206,10 @@
         <v>13.33</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G38" s="10">
         <v>16</v>
@@ -2251,10 +2218,10 @@
         <v>24</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K38" s="11">
         <v>44930</v>
@@ -2262,7 +2229,7 @@
     </row>
     <row r="39" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
@@ -2274,10 +2241,10 @@
         <v>16.84</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G39" s="12">
         <v>16</v>
@@ -2286,10 +2253,10 @@
         <v>24</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K39" s="13">
         <v>44691</v>
@@ -2297,7 +2264,7 @@
     </row>
     <row r="40" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
@@ -2309,10 +2276,10 @@
         <v>14.42</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G40" s="10">
         <v>16</v>
@@ -2321,10 +2288,10 @@
         <v>24</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K40" s="11">
         <v>44691</v>
@@ -2332,7 +2299,7 @@
     </row>
     <row r="41" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -2344,10 +2311,10 @@
         <v>14.25</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G41" s="12">
         <v>14</v>
@@ -2356,10 +2323,10 @@
         <v>20</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K41" s="13">
         <v>44930</v>
@@ -2367,7 +2334,7 @@
     </row>
     <row r="42" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>12</v>
@@ -2379,10 +2346,10 @@
         <v>12.82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G42" s="10">
         <v>16</v>
@@ -2391,10 +2358,10 @@
         <v>24</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K42" s="11">
         <v>44691</v>
@@ -2402,7 +2369,7 @@
     </row>
     <row r="43" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>12</v>
@@ -2414,10 +2381,10 @@
         <v>9.89</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G43" s="12">
         <v>14</v>
@@ -2426,10 +2393,10 @@
         <v>20</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K43" s="13">
         <v>44930</v>
@@ -2437,7 +2404,7 @@
     </row>
     <row r="44" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>12</v>
@@ -2449,10 +2416,10 @@
         <v>11.26</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G44" s="10">
         <v>14</v>
@@ -2461,10 +2428,10 @@
         <v>20</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K44" s="11">
         <v>45299</v>
@@ -2472,7 +2439,7 @@
     </row>
     <row r="45" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>12</v>
@@ -2484,10 +2451,10 @@
         <v>9.49</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G45" s="12">
         <v>14</v>
@@ -2496,10 +2463,10 @@
         <v>20</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K45" s="13">
         <v>44930</v>
